--- a/Sorted Seating.xlsx
+++ b/Sorted Seating.xlsx
@@ -1636,7 +1636,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v xml:space="preserve">Michal Zagury </v>
+        <v>Michal Zagury</v>
       </c>
       <c r="B155" t="str">
         <v>15</v>
